--- a/flutter/flutter_changenotifier.xlsx
+++ b/flutter/flutter_changenotifier.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toyohide/Desktop/hideyuki/MY_STUDY/flutter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1681D9-EE84-314A-B7B4-68E54717AFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0B2FE5-68B4-FA47-9902-C244C8922AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2120" windowWidth="24600" windowHeight="13560" activeTab="1" xr2:uid="{A0764741-408F-3E45-8CA6-E651C7963D2E}"/>
+    <workbookView xWindow="2700" yWindow="3220" windowWidth="24600" windowHeight="13560" activeTab="3" xr2:uid="{A0764741-408F-3E45-8CA6-E651C7963D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="changenotifier" sheetId="2" r:id="rId2"/>
-    <sheet name="youtube bloc" sheetId="3" r:id="rId3"/>
-    <sheet name="youtube bloc api" sheetId="4" r:id="rId4"/>
+    <sheet name="changenotifier 2" sheetId="5" r:id="rId3"/>
+    <sheet name="changenotifier 3" sheetId="6" r:id="rId4"/>
+    <sheet name="youtube bloc" sheetId="3" r:id="rId5"/>
+    <sheet name="youtube bloc api" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="613">
   <si>
     <t>https://tesshus-blog.netlify.app/flutter-change-notifier/</t>
     <phoneticPr fontId="1"/>
@@ -10442,6 +10444,1746 @@
   </si>
   <si>
     <t xml:space="preserve">            );</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1qu8X7f36k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flutter Provider 5 changeNotifier Example | State Management</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro ~ % cd StudioProjects/test_changenotifier2</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro test_changenotifier2 % flutter pub add provider</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro test_changenotifier2 % flutter pub get         </t>
+  </si>
+  <si>
+    <t>Running "flutter pub get" in test_changenotifier2...               216ms</t>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>: test_changenotifier2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>publish_to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'none'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  runApp(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  );</t>
+  </si>
+  <si>
+    <t>///////////////////////////////////////////////////////////</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    notifyListeners();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>ChangeNotifierProvider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      create: (_) =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Favorites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      child: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>MyApp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      home: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Scaffold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        appBar: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>AppBar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          title: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">'My favorite fruit is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>${Provider.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>&lt;Favorites&gt;(context).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>fruit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        body: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          children: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>[</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>FruitButton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(fruit: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'りんご'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>FruitButton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(fruit: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'みかん'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>FruitButton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(fruit: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'バナナ'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">FruitButton </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>StatelessWidget {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>fruit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">FruitButton({Key? key, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>required this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>fruit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">}) : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(key: key);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>ElevatedButton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(onPressed: () {}, child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>fruit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">Favorites </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>ChangeNotifier {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">fruit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'何かな？'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>changeFruit({</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">required </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>String newFruit}) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">fruit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>= newFruit;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>ElevatedButton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          Provider.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Favorites&gt;(context, listen: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              .changeFruit(newFruit: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>fruit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>fruit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro ~ % cd StudioProjects/test_changenotifier3</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro test_changenotifier3 % flutter pub add provider;</t>
+  </si>
+  <si>
+    <t>toyohide@toyohidenoMacBook-Pro test_changenotifier3 % flutter pub get;</t>
+  </si>
+  <si>
+    <t>Running "flutter pub get" in test_changenotifier3...               231ms</t>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>: test_changenotifier3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'another_screen.dart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'change_value_screen.dart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  runApp(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>ChangeNotifierProvider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    create: (_) =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>ChangeValueScreen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    child: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>MyApp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  ));</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          crossAxisAlignment: CrossAxisAlignment.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">          children: [</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>SizedBox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(height: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(Provider.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>&lt;ChangeValueScreen&gt;(context).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Divider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>AnotherScreen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(text: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'item 01'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>AnotherScreen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(text: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'item 02'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>AnotherScreen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(text: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>'item 03'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t>lib/another_screen.dart</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">AnotherScreen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>StatelessWidget {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">AnotherScreen({Key? key, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>required this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">}) : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(key: key);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      onPressed: () {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Provider.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">&lt;ChangeValueScreen&gt;(context, listen: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            .changeValue(newText: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      },</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      child: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2196F3"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t>lib/change_value_screen.dart</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">ChangeValueScreen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>ChangeNotifier {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>changeValue({</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">required </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>String newText}) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>= newText;</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W3aQga6THOU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flutter Provider and ChangeNotifier With Listener for State Management | Example</t>
+  </si>
+  <si>
+    <t>内容2と同じ</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オナジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -10594,7 +12336,7 @@
       <name val="JetBrains Mono"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10640,6 +12382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10741,7 +12489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11016,6 +12764,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11439,6 +13202,148 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC1A177-F263-DA97-532C-CB1D17882820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="39420800"/>
+          <a:ext cx="4470400" cy="9347200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED5DD0D-4ABC-34D1-ED8C-CA92F3071FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="72517000"/>
+          <a:ext cx="4457700" cy="9321800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D47A9EA-17E7-424B-99B8-4B1E8745BA26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="43738800"/>
+          <a:ext cx="4279900" cy="9232900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -11732,7 +13637,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12098,7 +14003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC6E19A-81CB-EA49-B4FE-AA8BD0EBFE33}">
   <dimension ref="A1:X416"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -17882,6 +19787,7287 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17244423-0A56-DC48-B947-1A9AD83554BC}">
+  <dimension ref="A1:X250"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K270" sqref="K270"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="3:15">
+      <c r="C1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="3:15">
+      <c r="C2" s="40" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" s="72" t="s">
+        <v>542</v>
+      </c>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7" s="72"/>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" s="72"/>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="C9" s="72" t="s">
+        <v>543</v>
+      </c>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="C10" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="C12" s="72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="C13" s="72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="C14" s="72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="C15" s="72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="C16" s="72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" s="72"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" s="72"/>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="72" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="72"/>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="72"/>
+    </row>
+    <row r="33" spans="3:24" ht="21" thickBot="1">
+      <c r="C33" s="72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" ht="24">
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="43"/>
+    </row>
+    <row r="35" spans="3:24" ht="24">
+      <c r="C35" s="44"/>
+      <c r="D35" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="47"/>
+    </row>
+    <row r="36" spans="3:24" ht="24">
+      <c r="C36" s="44"/>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="47"/>
+    </row>
+    <row r="37" spans="3:24" ht="24">
+      <c r="C37" s="44"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="47"/>
+    </row>
+    <row r="38" spans="3:24" ht="24">
+      <c r="C38" s="44"/>
+      <c r="D38" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="47"/>
+    </row>
+    <row r="39" spans="3:24" ht="24">
+      <c r="C39" s="44"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="47"/>
+    </row>
+    <row r="40" spans="3:24" ht="24">
+      <c r="C40" s="44"/>
+      <c r="D40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="47"/>
+    </row>
+    <row r="41" spans="3:24" ht="24">
+      <c r="C41" s="44"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="47"/>
+    </row>
+    <row r="42" spans="3:24" ht="24">
+      <c r="C42" s="44"/>
+      <c r="D42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="47"/>
+    </row>
+    <row r="43" spans="3:24" ht="24">
+      <c r="C43" s="44"/>
+      <c r="D43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="47"/>
+    </row>
+    <row r="44" spans="3:24" ht="24">
+      <c r="C44" s="44"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="47"/>
+    </row>
+    <row r="45" spans="3:24" ht="24">
+      <c r="C45" s="44"/>
+      <c r="D45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="47"/>
+    </row>
+    <row r="46" spans="3:24" ht="24">
+      <c r="C46" s="44"/>
+      <c r="D46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="47"/>
+    </row>
+    <row r="47" spans="3:24" ht="24">
+      <c r="C47" s="44"/>
+      <c r="D47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="47"/>
+    </row>
+    <row r="48" spans="3:24" ht="24">
+      <c r="C48" s="44"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="47"/>
+    </row>
+    <row r="49" spans="3:24" ht="24">
+      <c r="C49" s="44"/>
+      <c r="D49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="47"/>
+    </row>
+    <row r="50" spans="3:24" ht="24">
+      <c r="C50" s="44"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="47"/>
+    </row>
+    <row r="51" spans="3:24" ht="24">
+      <c r="C51" s="52"/>
+      <c r="D51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="47"/>
+    </row>
+    <row r="52" spans="3:24" ht="24">
+      <c r="C52" s="44"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="47"/>
+    </row>
+    <row r="53" spans="3:24" ht="24">
+      <c r="C53" s="44"/>
+      <c r="D53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="47"/>
+    </row>
+    <row r="54" spans="3:24" ht="24">
+      <c r="C54" s="44"/>
+      <c r="D54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="47"/>
+    </row>
+    <row r="55" spans="3:24" ht="24">
+      <c r="C55" s="44"/>
+      <c r="D55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="47"/>
+    </row>
+    <row r="56" spans="3:24" ht="24">
+      <c r="C56" s="44"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="47"/>
+    </row>
+    <row r="57" spans="3:24" ht="24">
+      <c r="C57" s="44"/>
+      <c r="D57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="47"/>
+    </row>
+    <row r="58" spans="3:24" ht="24">
+      <c r="C58" s="44"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="47"/>
+    </row>
+    <row r="59" spans="3:24" ht="24">
+      <c r="C59" s="44"/>
+      <c r="D59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="47"/>
+    </row>
+    <row r="60" spans="3:24" ht="24">
+      <c r="C60" s="44"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="47"/>
+    </row>
+    <row r="61" spans="3:24" ht="24">
+      <c r="C61" s="44"/>
+      <c r="D61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="47"/>
+    </row>
+    <row r="62" spans="3:24" ht="25" thickBot="1">
+      <c r="C62" s="49"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="50"/>
+      <c r="V62" s="50"/>
+      <c r="W62" s="50"/>
+      <c r="X62" s="51"/>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+    </row>
+    <row r="68" spans="1:24" ht="21" thickBot="1">
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="24">
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="43"/>
+    </row>
+    <row r="70" spans="1:24" ht="24">
+      <c r="C70" s="44"/>
+      <c r="D70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="47"/>
+    </row>
+    <row r="71" spans="1:24" ht="24">
+      <c r="C71" s="44"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="47"/>
+    </row>
+    <row r="72" spans="1:24" ht="24">
+      <c r="C72" s="44"/>
+      <c r="D72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="47"/>
+    </row>
+    <row r="73" spans="1:24" ht="24">
+      <c r="C73" s="44"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="47"/>
+    </row>
+    <row r="74" spans="1:24" ht="24">
+      <c r="C74" s="44"/>
+      <c r="D74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="47"/>
+    </row>
+    <row r="75" spans="1:24" ht="24">
+      <c r="C75" s="44"/>
+      <c r="D75" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="47"/>
+    </row>
+    <row r="76" spans="1:24" ht="24">
+      <c r="C76" s="44"/>
+      <c r="D76" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="47"/>
+    </row>
+    <row r="77" spans="1:24" ht="24">
+      <c r="C77" s="44"/>
+      <c r="D77" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="47"/>
+    </row>
+    <row r="78" spans="1:24" ht="24">
+      <c r="C78" s="44"/>
+      <c r="D78" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="47"/>
+    </row>
+    <row r="79" spans="1:24" ht="24">
+      <c r="C79" s="44"/>
+      <c r="D79" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="47"/>
+    </row>
+    <row r="80" spans="1:24" ht="24">
+      <c r="C80" s="44"/>
+      <c r="D80" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="47"/>
+    </row>
+    <row r="81" spans="3:24" ht="24">
+      <c r="C81" s="44"/>
+      <c r="D81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="47"/>
+    </row>
+    <row r="82" spans="3:24" ht="24">
+      <c r="C82" s="44"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="47"/>
+    </row>
+    <row r="83" spans="3:24" ht="24">
+      <c r="C83" s="44"/>
+      <c r="D83" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="47"/>
+    </row>
+    <row r="84" spans="3:24" ht="24">
+      <c r="C84" s="44"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="47"/>
+    </row>
+    <row r="85" spans="3:24" ht="24">
+      <c r="C85" s="44"/>
+      <c r="D85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="47"/>
+    </row>
+    <row r="86" spans="3:24" ht="24">
+      <c r="C86" s="44"/>
+      <c r="D86" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="47"/>
+    </row>
+    <row r="87" spans="3:24" ht="24">
+      <c r="C87" s="44"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="47"/>
+    </row>
+    <row r="88" spans="3:24" ht="24">
+      <c r="C88" s="44"/>
+      <c r="D88" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="47"/>
+    </row>
+    <row r="89" spans="3:24" ht="24">
+      <c r="C89" s="44"/>
+      <c r="D89" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="47"/>
+    </row>
+    <row r="90" spans="3:24" ht="24">
+      <c r="C90" s="44"/>
+      <c r="D90" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="47"/>
+    </row>
+    <row r="91" spans="3:24" ht="24">
+      <c r="C91" s="44"/>
+      <c r="D91" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="47"/>
+    </row>
+    <row r="92" spans="3:24" ht="24">
+      <c r="C92" s="44"/>
+      <c r="D92" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="47"/>
+    </row>
+    <row r="93" spans="3:24" ht="24">
+      <c r="C93" s="44"/>
+      <c r="D93" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="47"/>
+    </row>
+    <row r="94" spans="3:24" ht="24">
+      <c r="C94" s="44"/>
+      <c r="D94" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="93"/>
+      <c r="I94" s="93"/>
+      <c r="J94" s="93"/>
+      <c r="K94" s="93"/>
+      <c r="L94" s="93"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="47"/>
+    </row>
+    <row r="95" spans="3:24" ht="24">
+      <c r="C95" s="44"/>
+      <c r="D95" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="47"/>
+    </row>
+    <row r="96" spans="3:24" ht="24">
+      <c r="C96" s="44"/>
+      <c r="D96" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="47"/>
+    </row>
+    <row r="97" spans="3:24" ht="24">
+      <c r="C97" s="44"/>
+      <c r="D97" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="47"/>
+    </row>
+    <row r="98" spans="3:24" ht="24">
+      <c r="C98" s="44"/>
+      <c r="D98" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="47"/>
+    </row>
+    <row r="99" spans="3:24" ht="24">
+      <c r="C99" s="44"/>
+      <c r="D99" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="47"/>
+    </row>
+    <row r="100" spans="3:24" ht="24">
+      <c r="C100" s="44"/>
+      <c r="D100" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="47"/>
+    </row>
+    <row r="101" spans="3:24" ht="24">
+      <c r="C101" s="44"/>
+      <c r="D101" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="47"/>
+    </row>
+    <row r="102" spans="3:24" ht="24">
+      <c r="C102" s="44"/>
+      <c r="D102" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="47"/>
+    </row>
+    <row r="103" spans="3:24" ht="24">
+      <c r="C103" s="44"/>
+      <c r="D103" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="47"/>
+    </row>
+    <row r="104" spans="3:24" ht="24">
+      <c r="C104" s="44"/>
+      <c r="D104" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="47"/>
+    </row>
+    <row r="105" spans="3:24" ht="24">
+      <c r="C105" s="44"/>
+      <c r="D105" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="47"/>
+    </row>
+    <row r="106" spans="3:24" ht="24">
+      <c r="C106" s="44"/>
+      <c r="D106" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="47"/>
+    </row>
+    <row r="107" spans="3:24" ht="24">
+      <c r="C107" s="44"/>
+      <c r="D107" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="47"/>
+    </row>
+    <row r="108" spans="3:24" ht="24">
+      <c r="C108" s="44"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="47"/>
+    </row>
+    <row r="109" spans="3:24" ht="24">
+      <c r="C109" s="44"/>
+      <c r="D109" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="47"/>
+    </row>
+    <row r="110" spans="3:24" ht="24">
+      <c r="C110" s="44"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="47"/>
+    </row>
+    <row r="111" spans="3:24" ht="24">
+      <c r="C111" s="44"/>
+      <c r="D111" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="47"/>
+    </row>
+    <row r="112" spans="3:24" ht="24">
+      <c r="C112" s="44"/>
+      <c r="D112" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="47"/>
+    </row>
+    <row r="113" spans="3:24" ht="24">
+      <c r="C113" s="44"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="47"/>
+    </row>
+    <row r="114" spans="3:24" ht="24">
+      <c r="C114" s="44"/>
+      <c r="D114" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="47"/>
+    </row>
+    <row r="115" spans="3:24" ht="24">
+      <c r="C115" s="44"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="47"/>
+    </row>
+    <row r="116" spans="3:24" ht="24">
+      <c r="C116" s="44"/>
+      <c r="D116" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="47"/>
+    </row>
+    <row r="117" spans="3:24" ht="24">
+      <c r="C117" s="44"/>
+      <c r="D117" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="47"/>
+    </row>
+    <row r="118" spans="3:24" ht="24">
+      <c r="C118" s="44"/>
+      <c r="D118" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="47"/>
+    </row>
+    <row r="119" spans="3:24" ht="24">
+      <c r="C119" s="44"/>
+      <c r="D119" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="47"/>
+    </row>
+    <row r="120" spans="3:24" ht="24">
+      <c r="C120" s="44"/>
+      <c r="D120" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="47"/>
+    </row>
+    <row r="121" spans="3:24" ht="24">
+      <c r="C121" s="44"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="47"/>
+    </row>
+    <row r="122" spans="3:24" ht="24">
+      <c r="C122" s="44"/>
+      <c r="D122" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="47"/>
+    </row>
+    <row r="123" spans="3:24" ht="24">
+      <c r="C123" s="44"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="47"/>
+    </row>
+    <row r="124" spans="3:24" ht="24">
+      <c r="C124" s="44"/>
+      <c r="D124" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="47"/>
+    </row>
+    <row r="125" spans="3:24" ht="24">
+      <c r="C125" s="94"/>
+      <c r="D125" s="95" t="s">
+        <v>570</v>
+      </c>
+      <c r="E125" s="93"/>
+      <c r="F125" s="93"/>
+      <c r="G125" s="93"/>
+      <c r="H125" s="93"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="47"/>
+    </row>
+    <row r="126" spans="3:24" ht="24">
+      <c r="C126" s="44"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="47"/>
+    </row>
+    <row r="127" spans="3:24" ht="24">
+      <c r="C127" s="44"/>
+      <c r="D127" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2"/>
+      <c r="V127" s="2"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="47"/>
+    </row>
+    <row r="128" spans="3:24" ht="24">
+      <c r="C128" s="44"/>
+      <c r="D128" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="47"/>
+    </row>
+    <row r="129" spans="3:24" ht="24">
+      <c r="C129" s="44"/>
+      <c r="D129" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="47"/>
+    </row>
+    <row r="130" spans="3:24" ht="24">
+      <c r="C130" s="44"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="47"/>
+    </row>
+    <row r="131" spans="3:24" ht="24">
+      <c r="C131" s="44"/>
+      <c r="D131" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
+      <c r="W131" s="2"/>
+      <c r="X131" s="47"/>
+    </row>
+    <row r="132" spans="3:24" ht="24">
+      <c r="C132" s="44"/>
+      <c r="D132" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="47"/>
+    </row>
+    <row r="133" spans="3:24" ht="24">
+      <c r="C133" s="44"/>
+      <c r="D133" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="V133" s="2"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="47"/>
+    </row>
+    <row r="134" spans="3:24" ht="25" thickBot="1">
+      <c r="C134" s="49"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="50"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="50"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
+      <c r="J134" s="50"/>
+      <c r="K134" s="50"/>
+      <c r="L134" s="50"/>
+      <c r="M134" s="50"/>
+      <c r="N134" s="50"/>
+      <c r="O134" s="50"/>
+      <c r="P134" s="50"/>
+      <c r="Q134" s="50"/>
+      <c r="R134" s="50"/>
+      <c r="S134" s="50"/>
+      <c r="T134" s="50"/>
+      <c r="U134" s="50"/>
+      <c r="V134" s="50"/>
+      <c r="W134" s="50"/>
+      <c r="X134" s="51"/>
+    </row>
+    <row r="176" s="65" customFormat="1"/>
+    <row r="179" spans="3:24" ht="21" thickBot="1">
+      <c r="C179" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="3:24" ht="24">
+      <c r="C180" s="41"/>
+      <c r="D180" s="42"/>
+      <c r="E180" s="42"/>
+      <c r="F180" s="42"/>
+      <c r="G180" s="42"/>
+      <c r="H180" s="42"/>
+      <c r="I180" s="42"/>
+      <c r="J180" s="42"/>
+      <c r="K180" s="42"/>
+      <c r="L180" s="42"/>
+      <c r="M180" s="42"/>
+      <c r="N180" s="42"/>
+      <c r="O180" s="42"/>
+      <c r="P180" s="42"/>
+      <c r="Q180" s="42"/>
+      <c r="R180" s="42"/>
+      <c r="S180" s="42"/>
+      <c r="T180" s="42"/>
+      <c r="U180" s="42"/>
+      <c r="V180" s="42"/>
+      <c r="W180" s="42"/>
+      <c r="X180" s="43"/>
+    </row>
+    <row r="181" spans="3:24" ht="24">
+      <c r="C181" s="44"/>
+      <c r="D181" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2"/>
+      <c r="V181" s="2"/>
+      <c r="W181" s="2"/>
+      <c r="X181" s="47"/>
+    </row>
+    <row r="182" spans="3:24" ht="24">
+      <c r="C182" s="44"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2"/>
+      <c r="V182" s="2"/>
+      <c r="W182" s="2"/>
+      <c r="X182" s="47"/>
+    </row>
+    <row r="183" spans="3:24" ht="24">
+      <c r="C183" s="44"/>
+      <c r="D183" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="2"/>
+      <c r="V183" s="2"/>
+      <c r="W183" s="2"/>
+      <c r="X183" s="47"/>
+    </row>
+    <row r="184" spans="3:24" ht="24">
+      <c r="C184" s="44"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="2"/>
+      <c r="V184" s="2"/>
+      <c r="W184" s="2"/>
+      <c r="X184" s="47"/>
+    </row>
+    <row r="185" spans="3:24" ht="24">
+      <c r="C185" s="44"/>
+      <c r="D185" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="2"/>
+      <c r="V185" s="2"/>
+      <c r="W185" s="2"/>
+      <c r="X185" s="47"/>
+    </row>
+    <row r="186" spans="3:24" ht="24">
+      <c r="C186" s="44"/>
+      <c r="D186" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2"/>
+      <c r="V186" s="2"/>
+      <c r="W186" s="2"/>
+      <c r="X186" s="47"/>
+    </row>
+    <row r="187" spans="3:24" ht="24">
+      <c r="C187" s="44"/>
+      <c r="D187" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+      <c r="R187" s="2"/>
+      <c r="S187" s="2"/>
+      <c r="T187" s="2"/>
+      <c r="U187" s="2"/>
+      <c r="V187" s="2"/>
+      <c r="W187" s="2"/>
+      <c r="X187" s="47"/>
+    </row>
+    <row r="188" spans="3:24" ht="24">
+      <c r="C188" s="44"/>
+      <c r="D188" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+      <c r="R188" s="2"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
+      <c r="U188" s="2"/>
+      <c r="V188" s="2"/>
+      <c r="W188" s="2"/>
+      <c r="X188" s="47"/>
+    </row>
+    <row r="189" spans="3:24" ht="24">
+      <c r="C189" s="44"/>
+      <c r="D189" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2"/>
+      <c r="V189" s="2"/>
+      <c r="W189" s="2"/>
+      <c r="X189" s="47"/>
+    </row>
+    <row r="190" spans="3:24" ht="24">
+      <c r="C190" s="44"/>
+      <c r="D190" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+      <c r="R190" s="2"/>
+      <c r="S190" s="2"/>
+      <c r="T190" s="2"/>
+      <c r="U190" s="2"/>
+      <c r="V190" s="2"/>
+      <c r="W190" s="2"/>
+      <c r="X190" s="47"/>
+    </row>
+    <row r="191" spans="3:24" ht="24">
+      <c r="C191" s="44"/>
+      <c r="D191" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2"/>
+      <c r="V191" s="2"/>
+      <c r="W191" s="2"/>
+      <c r="X191" s="47"/>
+    </row>
+    <row r="192" spans="3:24" ht="24">
+      <c r="C192" s="44"/>
+      <c r="D192" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2"/>
+      <c r="V192" s="2"/>
+      <c r="W192" s="2"/>
+      <c r="X192" s="47"/>
+    </row>
+    <row r="193" spans="3:24" ht="24">
+      <c r="C193" s="44"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2"/>
+      <c r="V193" s="2"/>
+      <c r="W193" s="2"/>
+      <c r="X193" s="47"/>
+    </row>
+    <row r="194" spans="3:24" ht="24">
+      <c r="C194" s="44"/>
+      <c r="D194" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2"/>
+      <c r="V194" s="2"/>
+      <c r="W194" s="2"/>
+      <c r="X194" s="47"/>
+    </row>
+    <row r="195" spans="3:24" ht="24">
+      <c r="C195" s="44"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2"/>
+      <c r="V195" s="2"/>
+      <c r="W195" s="2"/>
+      <c r="X195" s="47"/>
+    </row>
+    <row r="196" spans="3:24" ht="24">
+      <c r="C196" s="44"/>
+      <c r="D196" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2"/>
+      <c r="V196" s="2"/>
+      <c r="W196" s="2"/>
+      <c r="X196" s="47"/>
+    </row>
+    <row r="197" spans="3:24" ht="24">
+      <c r="C197" s="44"/>
+      <c r="D197" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2"/>
+      <c r="V197" s="2"/>
+      <c r="W197" s="2"/>
+      <c r="X197" s="47"/>
+    </row>
+    <row r="198" spans="3:24" ht="24">
+      <c r="C198" s="44"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
+      <c r="V198" s="2"/>
+      <c r="W198" s="2"/>
+      <c r="X198" s="47"/>
+    </row>
+    <row r="199" spans="3:24" ht="24">
+      <c r="C199" s="44"/>
+      <c r="D199" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
+      <c r="V199" s="2"/>
+      <c r="W199" s="2"/>
+      <c r="X199" s="47"/>
+    </row>
+    <row r="200" spans="3:24" ht="24">
+      <c r="C200" s="44"/>
+      <c r="D200" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2"/>
+      <c r="V200" s="2"/>
+      <c r="W200" s="2"/>
+      <c r="X200" s="47"/>
+    </row>
+    <row r="201" spans="3:24" ht="24">
+      <c r="C201" s="44"/>
+      <c r="D201" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="2"/>
+      <c r="V201" s="2"/>
+      <c r="W201" s="2"/>
+      <c r="X201" s="47"/>
+    </row>
+    <row r="202" spans="3:24" ht="24">
+      <c r="C202" s="44"/>
+      <c r="D202" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2"/>
+      <c r="V202" s="2"/>
+      <c r="W202" s="2"/>
+      <c r="X202" s="47"/>
+    </row>
+    <row r="203" spans="3:24" ht="24">
+      <c r="C203" s="44"/>
+      <c r="D203" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2"/>
+      <c r="V203" s="2"/>
+      <c r="W203" s="2"/>
+      <c r="X203" s="47"/>
+    </row>
+    <row r="204" spans="3:24" ht="24">
+      <c r="C204" s="44"/>
+      <c r="D204" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="2"/>
+      <c r="R204" s="2"/>
+      <c r="S204" s="2"/>
+      <c r="T204" s="2"/>
+      <c r="U204" s="2"/>
+      <c r="V204" s="2"/>
+      <c r="W204" s="2"/>
+      <c r="X204" s="47"/>
+    </row>
+    <row r="205" spans="3:24" ht="24">
+      <c r="C205" s="44"/>
+      <c r="D205" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2"/>
+      <c r="V205" s="2"/>
+      <c r="W205" s="2"/>
+      <c r="X205" s="47"/>
+    </row>
+    <row r="206" spans="3:24" ht="24">
+      <c r="C206" s="44"/>
+      <c r="D206" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="2"/>
+      <c r="V206" s="2"/>
+      <c r="W206" s="2"/>
+      <c r="X206" s="47"/>
+    </row>
+    <row r="207" spans="3:24" ht="24">
+      <c r="C207" s="44"/>
+      <c r="D207" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2"/>
+      <c r="V207" s="2"/>
+      <c r="W207" s="2"/>
+      <c r="X207" s="47"/>
+    </row>
+    <row r="208" spans="3:24" ht="24">
+      <c r="C208" s="44"/>
+      <c r="D208" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2"/>
+      <c r="V208" s="2"/>
+      <c r="W208" s="2"/>
+      <c r="X208" s="47"/>
+    </row>
+    <row r="209" spans="3:24" ht="24">
+      <c r="C209" s="44"/>
+      <c r="D209" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2"/>
+      <c r="V209" s="2"/>
+      <c r="W209" s="2"/>
+      <c r="X209" s="47"/>
+    </row>
+    <row r="210" spans="3:24" ht="24">
+      <c r="C210" s="44"/>
+      <c r="D210" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2"/>
+      <c r="V210" s="2"/>
+      <c r="W210" s="2"/>
+      <c r="X210" s="47"/>
+    </row>
+    <row r="211" spans="3:24" ht="24">
+      <c r="C211" s="44"/>
+      <c r="D211" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+      <c r="U211" s="2"/>
+      <c r="V211" s="2"/>
+      <c r="W211" s="2"/>
+      <c r="X211" s="47"/>
+    </row>
+    <row r="212" spans="3:24" ht="24">
+      <c r="C212" s="44"/>
+      <c r="D212" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2"/>
+      <c r="V212" s="2"/>
+      <c r="W212" s="2"/>
+      <c r="X212" s="47"/>
+    </row>
+    <row r="213" spans="3:24" ht="24">
+      <c r="C213" s="44"/>
+      <c r="D213" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2"/>
+      <c r="V213" s="2"/>
+      <c r="W213" s="2"/>
+      <c r="X213" s="47"/>
+    </row>
+    <row r="214" spans="3:24" ht="24">
+      <c r="C214" s="44"/>
+      <c r="D214" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="2"/>
+      <c r="V214" s="2"/>
+      <c r="W214" s="2"/>
+      <c r="X214" s="47"/>
+    </row>
+    <row r="215" spans="3:24" ht="24">
+      <c r="C215" s="44"/>
+      <c r="D215" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+      <c r="U215" s="2"/>
+      <c r="V215" s="2"/>
+      <c r="W215" s="2"/>
+      <c r="X215" s="47"/>
+    </row>
+    <row r="216" spans="3:24" ht="24">
+      <c r="C216" s="44"/>
+      <c r="D216" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="2"/>
+      <c r="T216" s="2"/>
+      <c r="U216" s="2"/>
+      <c r="V216" s="2"/>
+      <c r="W216" s="2"/>
+      <c r="X216" s="47"/>
+    </row>
+    <row r="217" spans="3:24" ht="24">
+      <c r="C217" s="44"/>
+      <c r="D217" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="2"/>
+      <c r="V217" s="2"/>
+      <c r="W217" s="2"/>
+      <c r="X217" s="47"/>
+    </row>
+    <row r="218" spans="3:24" ht="24">
+      <c r="C218" s="44"/>
+      <c r="D218" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2"/>
+      <c r="V218" s="2"/>
+      <c r="W218" s="2"/>
+      <c r="X218" s="47"/>
+    </row>
+    <row r="219" spans="3:24" ht="24">
+      <c r="C219" s="44"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="2"/>
+      <c r="T219" s="2"/>
+      <c r="U219" s="2"/>
+      <c r="V219" s="2"/>
+      <c r="W219" s="2"/>
+      <c r="X219" s="47"/>
+    </row>
+    <row r="220" spans="3:24" ht="24">
+      <c r="C220" s="44"/>
+      <c r="D220" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="2"/>
+      <c r="N220" s="2"/>
+      <c r="O220" s="2"/>
+      <c r="P220" s="2"/>
+      <c r="Q220" s="2"/>
+      <c r="R220" s="2"/>
+      <c r="S220" s="2"/>
+      <c r="T220" s="2"/>
+      <c r="U220" s="2"/>
+      <c r="V220" s="2"/>
+      <c r="W220" s="2"/>
+      <c r="X220" s="47"/>
+    </row>
+    <row r="221" spans="3:24" ht="24">
+      <c r="C221" s="44"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2"/>
+      <c r="R221" s="2"/>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2"/>
+      <c r="U221" s="2"/>
+      <c r="V221" s="2"/>
+      <c r="W221" s="2"/>
+      <c r="X221" s="47"/>
+    </row>
+    <row r="222" spans="3:24" ht="24">
+      <c r="C222" s="44"/>
+      <c r="D222" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="2"/>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
+      <c r="P222" s="2"/>
+      <c r="Q222" s="2"/>
+      <c r="R222" s="2"/>
+      <c r="S222" s="2"/>
+      <c r="T222" s="2"/>
+      <c r="U222" s="2"/>
+      <c r="V222" s="2"/>
+      <c r="W222" s="2"/>
+      <c r="X222" s="47"/>
+    </row>
+    <row r="223" spans="3:24" ht="24">
+      <c r="C223" s="44"/>
+      <c r="D223" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+      <c r="M223" s="2"/>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
+      <c r="P223" s="2"/>
+      <c r="Q223" s="2"/>
+      <c r="R223" s="2"/>
+      <c r="S223" s="2"/>
+      <c r="T223" s="2"/>
+      <c r="U223" s="2"/>
+      <c r="V223" s="2"/>
+      <c r="W223" s="2"/>
+      <c r="X223" s="47"/>
+    </row>
+    <row r="224" spans="3:24" ht="24">
+      <c r="C224" s="44"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="2"/>
+      <c r="M224" s="2"/>
+      <c r="N224" s="2"/>
+      <c r="O224" s="2"/>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2"/>
+      <c r="R224" s="2"/>
+      <c r="S224" s="2"/>
+      <c r="T224" s="2"/>
+      <c r="U224" s="2"/>
+      <c r="V224" s="2"/>
+      <c r="W224" s="2"/>
+      <c r="X224" s="47"/>
+    </row>
+    <row r="225" spans="3:24" ht="24">
+      <c r="C225" s="44"/>
+      <c r="D225" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2"/>
+      <c r="N225" s="2"/>
+      <c r="O225" s="2"/>
+      <c r="P225" s="2"/>
+      <c r="Q225" s="2"/>
+      <c r="R225" s="2"/>
+      <c r="S225" s="2"/>
+      <c r="T225" s="2"/>
+      <c r="U225" s="2"/>
+      <c r="V225" s="2"/>
+      <c r="W225" s="2"/>
+      <c r="X225" s="47"/>
+    </row>
+    <row r="226" spans="3:24" ht="24">
+      <c r="C226" s="44"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2"/>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" s="2"/>
+      <c r="R226" s="2"/>
+      <c r="S226" s="2"/>
+      <c r="T226" s="2"/>
+      <c r="U226" s="2"/>
+      <c r="V226" s="2"/>
+      <c r="W226" s="2"/>
+      <c r="X226" s="47"/>
+    </row>
+    <row r="227" spans="3:24" ht="24">
+      <c r="C227" s="44"/>
+      <c r="D227" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="2"/>
+      <c r="N227" s="2"/>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
+      <c r="U227" s="2"/>
+      <c r="V227" s="2"/>
+      <c r="W227" s="2"/>
+      <c r="X227" s="47"/>
+    </row>
+    <row r="228" spans="3:24" ht="24">
+      <c r="C228" s="44"/>
+      <c r="D228" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2"/>
+      <c r="R228" s="2"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
+      <c r="U228" s="2"/>
+      <c r="V228" s="2"/>
+      <c r="W228" s="2"/>
+      <c r="X228" s="47"/>
+    </row>
+    <row r="229" spans="3:24" ht="24">
+      <c r="C229" s="44"/>
+      <c r="D229" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2"/>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
+      <c r="Q229" s="2"/>
+      <c r="R229" s="2"/>
+      <c r="S229" s="2"/>
+      <c r="T229" s="2"/>
+      <c r="U229" s="2"/>
+      <c r="V229" s="2"/>
+      <c r="W229" s="2"/>
+      <c r="X229" s="47"/>
+    </row>
+    <row r="230" spans="3:24" ht="24">
+      <c r="C230" s="44"/>
+      <c r="D230" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" s="2"/>
+      <c r="R230" s="2"/>
+      <c r="S230" s="2"/>
+      <c r="T230" s="2"/>
+      <c r="U230" s="2"/>
+      <c r="V230" s="2"/>
+      <c r="W230" s="2"/>
+      <c r="X230" s="47"/>
+    </row>
+    <row r="231" spans="3:24" ht="24">
+      <c r="C231" s="52"/>
+      <c r="D231" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="5"/>
+      <c r="M231" s="2"/>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="2"/>
+      <c r="V231" s="2"/>
+      <c r="W231" s="2"/>
+      <c r="X231" s="47"/>
+    </row>
+    <row r="232" spans="3:24" ht="24">
+      <c r="C232" s="52"/>
+      <c r="D232" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="5"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
+      <c r="U232" s="2"/>
+      <c r="V232" s="2"/>
+      <c r="W232" s="2"/>
+      <c r="X232" s="47"/>
+    </row>
+    <row r="233" spans="3:24" ht="24">
+      <c r="C233" s="44"/>
+      <c r="D233" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
+      <c r="U233" s="2"/>
+      <c r="V233" s="2"/>
+      <c r="W233" s="2"/>
+      <c r="X233" s="47"/>
+    </row>
+    <row r="234" spans="3:24" ht="24">
+      <c r="C234" s="44"/>
+      <c r="D234" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
+      <c r="U234" s="2"/>
+      <c r="V234" s="2"/>
+      <c r="W234" s="2"/>
+      <c r="X234" s="47"/>
+    </row>
+    <row r="235" spans="3:24" ht="24">
+      <c r="C235" s="44"/>
+      <c r="D235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+      <c r="N235" s="2"/>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2"/>
+      <c r="S235" s="2"/>
+      <c r="T235" s="2"/>
+      <c r="U235" s="2"/>
+      <c r="V235" s="2"/>
+      <c r="W235" s="2"/>
+      <c r="X235" s="47"/>
+    </row>
+    <row r="236" spans="3:24" ht="24">
+      <c r="C236" s="44"/>
+      <c r="D236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2"/>
+      <c r="N236" s="2"/>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
+      <c r="U236" s="2"/>
+      <c r="V236" s="2"/>
+      <c r="W236" s="2"/>
+      <c r="X236" s="47"/>
+    </row>
+    <row r="237" spans="3:24" ht="24">
+      <c r="C237" s="44"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+      <c r="M237" s="2"/>
+      <c r="N237" s="2"/>
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2"/>
+      <c r="V237" s="2"/>
+      <c r="W237" s="2"/>
+      <c r="X237" s="47"/>
+    </row>
+    <row r="238" spans="3:24" ht="24">
+      <c r="C238" s="44"/>
+      <c r="D238" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2"/>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="U238" s="2"/>
+      <c r="V238" s="2"/>
+      <c r="W238" s="2"/>
+      <c r="X238" s="47"/>
+    </row>
+    <row r="239" spans="3:24" ht="24">
+      <c r="C239" s="44"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2"/>
+      <c r="N239" s="2"/>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" s="2"/>
+      <c r="R239" s="2"/>
+      <c r="S239" s="2"/>
+      <c r="T239" s="2"/>
+      <c r="U239" s="2"/>
+      <c r="V239" s="2"/>
+      <c r="W239" s="2"/>
+      <c r="X239" s="47"/>
+    </row>
+    <row r="240" spans="3:24" ht="24">
+      <c r="C240" s="44"/>
+      <c r="D240" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="2"/>
+      <c r="V240" s="2"/>
+      <c r="W240" s="2"/>
+      <c r="X240" s="47"/>
+    </row>
+    <row r="241" spans="3:24" ht="24">
+      <c r="C241" s="44"/>
+      <c r="D241" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
+      <c r="U241" s="2"/>
+      <c r="V241" s="2"/>
+      <c r="W241" s="2"/>
+      <c r="X241" s="47"/>
+    </row>
+    <row r="242" spans="3:24" ht="24">
+      <c r="C242" s="44"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="2"/>
+      <c r="R242" s="2"/>
+      <c r="S242" s="2"/>
+      <c r="T242" s="2"/>
+      <c r="U242" s="2"/>
+      <c r="V242" s="2"/>
+      <c r="W242" s="2"/>
+      <c r="X242" s="47"/>
+    </row>
+    <row r="243" spans="3:24" ht="24">
+      <c r="C243" s="52"/>
+      <c r="D243" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="2"/>
+      <c r="N243" s="2"/>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" s="2"/>
+      <c r="R243" s="2"/>
+      <c r="S243" s="2"/>
+      <c r="T243" s="2"/>
+      <c r="U243" s="2"/>
+      <c r="V243" s="2"/>
+      <c r="W243" s="2"/>
+      <c r="X243" s="47"/>
+    </row>
+    <row r="244" spans="3:24" ht="24">
+      <c r="C244" s="52"/>
+      <c r="D244" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
+      <c r="O244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="Q244" s="2"/>
+      <c r="R244" s="2"/>
+      <c r="S244" s="2"/>
+      <c r="T244" s="2"/>
+      <c r="U244" s="2"/>
+      <c r="V244" s="2"/>
+      <c r="W244" s="2"/>
+      <c r="X244" s="47"/>
+    </row>
+    <row r="245" spans="3:24" ht="24">
+      <c r="C245" s="52"/>
+      <c r="D245" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="5"/>
+      <c r="M245" s="2"/>
+      <c r="N245" s="2"/>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
+      <c r="U245" s="2"/>
+      <c r="V245" s="2"/>
+      <c r="W245" s="2"/>
+      <c r="X245" s="47"/>
+    </row>
+    <row r="246" spans="3:24" ht="24">
+      <c r="C246" s="52"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="5"/>
+      <c r="M246" s="2"/>
+      <c r="N246" s="2"/>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" s="2"/>
+      <c r="R246" s="2"/>
+      <c r="S246" s="2"/>
+      <c r="T246" s="2"/>
+      <c r="U246" s="2"/>
+      <c r="V246" s="2"/>
+      <c r="W246" s="2"/>
+      <c r="X246" s="47"/>
+    </row>
+    <row r="247" spans="3:24" ht="24">
+      <c r="C247" s="52"/>
+      <c r="D247" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="5"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="5"/>
+      <c r="M247" s="2"/>
+      <c r="N247" s="2"/>
+      <c r="O247" s="2"/>
+      <c r="P247" s="2"/>
+      <c r="Q247" s="2"/>
+      <c r="R247" s="2"/>
+      <c r="S247" s="2"/>
+      <c r="T247" s="2"/>
+      <c r="U247" s="2"/>
+      <c r="V247" s="2"/>
+      <c r="W247" s="2"/>
+      <c r="X247" s="47"/>
+    </row>
+    <row r="248" spans="3:24" ht="24">
+      <c r="C248" s="52"/>
+      <c r="D248" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="5"/>
+      <c r="M248" s="2"/>
+      <c r="N248" s="2"/>
+      <c r="O248" s="2"/>
+      <c r="P248" s="2"/>
+      <c r="Q248" s="2"/>
+      <c r="R248" s="2"/>
+      <c r="S248" s="2"/>
+      <c r="T248" s="2"/>
+      <c r="U248" s="2"/>
+      <c r="V248" s="2"/>
+      <c r="W248" s="2"/>
+      <c r="X248" s="47"/>
+    </row>
+    <row r="249" spans="3:24" ht="24">
+      <c r="C249" s="44"/>
+      <c r="D249" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+      <c r="M249" s="2"/>
+      <c r="N249" s="2"/>
+      <c r="O249" s="2"/>
+      <c r="P249" s="2"/>
+      <c r="Q249" s="2"/>
+      <c r="R249" s="2"/>
+      <c r="S249" s="2"/>
+      <c r="T249" s="2"/>
+      <c r="U249" s="2"/>
+      <c r="V249" s="2"/>
+      <c r="W249" s="2"/>
+      <c r="X249" s="47"/>
+    </row>
+    <row r="250" spans="3:24" ht="25" thickBot="1">
+      <c r="C250" s="49"/>
+      <c r="D250" s="50"/>
+      <c r="E250" s="50"/>
+      <c r="F250" s="50"/>
+      <c r="G250" s="50"/>
+      <c r="H250" s="50"/>
+      <c r="I250" s="50"/>
+      <c r="J250" s="50"/>
+      <c r="K250" s="50"/>
+      <c r="L250" s="50"/>
+      <c r="M250" s="50"/>
+      <c r="N250" s="50"/>
+      <c r="O250" s="50"/>
+      <c r="P250" s="50"/>
+      <c r="Q250" s="50"/>
+      <c r="R250" s="50"/>
+      <c r="S250" s="50"/>
+      <c r="T250" s="50"/>
+      <c r="U250" s="50"/>
+      <c r="V250" s="50"/>
+      <c r="W250" s="50"/>
+      <c r="X250" s="51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{01D8C05F-A493-424C-B4BB-35F70F45EFF7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE85B03D-1011-5E4E-A210-08106630760E}">
+  <dimension ref="A1:X149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="3:15">
+      <c r="C1" t="s">
+        <v>611</v>
+      </c>
+      <c r="O1" s="64" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="3:15">
+      <c r="C2" s="40" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="C5" s="72"/>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" s="72" t="s">
+        <v>577</v>
+      </c>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7" s="72"/>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" s="72"/>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="C9" s="72" t="s">
+        <v>578</v>
+      </c>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="C10" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="C12" s="72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="C13" s="72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="C14" s="72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="C15" s="72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="C16" s="72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" s="72"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" s="72"/>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="72" t="s">
+        <v>579</v>
+      </c>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="72" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="72"/>
+    </row>
+    <row r="33" spans="3:24" ht="21" thickBot="1">
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" ht="24">
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="43"/>
+    </row>
+    <row r="35" spans="3:24" ht="24">
+      <c r="C35" s="44"/>
+      <c r="D35" s="45" t="s">
+        <v>581</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="47"/>
+    </row>
+    <row r="36" spans="3:24" ht="24">
+      <c r="C36" s="44"/>
+      <c r="D36" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="47"/>
+    </row>
+    <row r="37" spans="3:24" ht="24">
+      <c r="C37" s="44"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="47"/>
+    </row>
+    <row r="38" spans="3:24" ht="24">
+      <c r="C38" s="44"/>
+      <c r="D38" s="45" t="s">
+        <v>547</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="47"/>
+    </row>
+    <row r="39" spans="3:24" ht="24">
+      <c r="C39" s="44"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="47"/>
+    </row>
+    <row r="40" spans="3:24" ht="24">
+      <c r="C40" s="44"/>
+      <c r="D40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="47"/>
+    </row>
+    <row r="41" spans="3:24" ht="24">
+      <c r="C41" s="44"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="47"/>
+    </row>
+    <row r="42" spans="3:24" ht="24">
+      <c r="C42" s="44"/>
+      <c r="D42" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="47"/>
+    </row>
+    <row r="43" spans="3:24" ht="24">
+      <c r="C43" s="44"/>
+      <c r="D43" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="47"/>
+    </row>
+    <row r="44" spans="3:24" ht="24">
+      <c r="C44" s="44"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="47"/>
+    </row>
+    <row r="45" spans="3:24" ht="24">
+      <c r="C45" s="44"/>
+      <c r="D45" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="47"/>
+    </row>
+    <row r="46" spans="3:24" ht="24">
+      <c r="C46" s="44"/>
+      <c r="D46" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="47"/>
+    </row>
+    <row r="47" spans="3:24" ht="24">
+      <c r="C47" s="44"/>
+      <c r="D47" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="47"/>
+    </row>
+    <row r="48" spans="3:24" ht="24">
+      <c r="C48" s="44"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="47"/>
+    </row>
+    <row r="49" spans="3:24" ht="24">
+      <c r="C49" s="44"/>
+      <c r="D49" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="47"/>
+    </row>
+    <row r="50" spans="3:24" ht="24">
+      <c r="C50" s="44"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="47"/>
+    </row>
+    <row r="51" spans="3:24" ht="24">
+      <c r="C51" s="52"/>
+      <c r="D51" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="47"/>
+    </row>
+    <row r="52" spans="3:24" ht="24">
+      <c r="C52" s="44"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="47"/>
+    </row>
+    <row r="53" spans="3:24" ht="24">
+      <c r="C53" s="44"/>
+      <c r="D53" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="47"/>
+    </row>
+    <row r="54" spans="3:24" ht="24">
+      <c r="C54" s="44"/>
+      <c r="D54" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="47"/>
+    </row>
+    <row r="55" spans="3:24" ht="24">
+      <c r="C55" s="44"/>
+      <c r="D55" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="47"/>
+    </row>
+    <row r="56" spans="3:24" ht="24">
+      <c r="C56" s="44"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="47"/>
+    </row>
+    <row r="57" spans="3:24" ht="24">
+      <c r="C57" s="44"/>
+      <c r="D57" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="47"/>
+    </row>
+    <row r="58" spans="3:24" ht="24">
+      <c r="C58" s="44"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="46"/>
+      <c r="X58" s="47"/>
+    </row>
+    <row r="59" spans="3:24" ht="24">
+      <c r="C59" s="44"/>
+      <c r="D59" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="47"/>
+    </row>
+    <row r="60" spans="3:24" ht="24">
+      <c r="C60" s="44"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="47"/>
+    </row>
+    <row r="61" spans="3:24" ht="24">
+      <c r="C61" s="44"/>
+      <c r="D61" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="47"/>
+    </row>
+    <row r="62" spans="3:24" ht="25" thickBot="1">
+      <c r="C62" s="49"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="50"/>
+      <c r="V62" s="50"/>
+      <c r="W62" s="50"/>
+      <c r="X62" s="51"/>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+    </row>
+    <row r="68" spans="1:24" ht="21" thickBot="1">
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="24">
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="43"/>
+    </row>
+    <row r="70" spans="1:24" ht="24">
+      <c r="C70" s="44"/>
+      <c r="D70" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="46"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="46"/>
+      <c r="X70" s="47"/>
+    </row>
+    <row r="71" spans="1:24" ht="24">
+      <c r="C71" s="44"/>
+      <c r="D71" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="46"/>
+      <c r="Q71" s="46"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="46"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="46"/>
+      <c r="X71" s="47"/>
+    </row>
+    <row r="72" spans="1:24" ht="24">
+      <c r="C72" s="44"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="46"/>
+      <c r="Q72" s="46"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="46"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="46"/>
+      <c r="X72" s="47"/>
+    </row>
+    <row r="73" spans="1:24" ht="24">
+      <c r="C73" s="44"/>
+      <c r="D73" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="47"/>
+    </row>
+    <row r="74" spans="1:24" ht="24">
+      <c r="C74" s="44"/>
+      <c r="D74" s="45" t="s">
+        <v>583</v>
+      </c>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="46"/>
+      <c r="R74" s="46"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="46"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="46"/>
+      <c r="X74" s="47"/>
+    </row>
+    <row r="75" spans="1:24" ht="24">
+      <c r="C75" s="44"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="46"/>
+      <c r="X75" s="47"/>
+    </row>
+    <row r="76" spans="1:24" ht="24">
+      <c r="C76" s="44"/>
+      <c r="D76" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="46"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
+      <c r="X76" s="47"/>
+    </row>
+    <row r="77" spans="1:24" ht="24">
+      <c r="C77" s="44"/>
+      <c r="D77" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="46"/>
+      <c r="P77" s="46"/>
+      <c r="Q77" s="46"/>
+      <c r="R77" s="46"/>
+      <c r="S77" s="46"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="46"/>
+      <c r="V77" s="46"/>
+      <c r="W77" s="46"/>
+      <c r="X77" s="47"/>
+    </row>
+    <row r="78" spans="1:24" ht="24">
+      <c r="C78" s="44"/>
+      <c r="D78" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="46"/>
+      <c r="R78" s="46"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="46"/>
+      <c r="W78" s="46"/>
+      <c r="X78" s="47"/>
+    </row>
+    <row r="79" spans="1:24" ht="24">
+      <c r="C79" s="44"/>
+      <c r="D79" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="46"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="46"/>
+      <c r="R79" s="46"/>
+      <c r="S79" s="46"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="46"/>
+      <c r="V79" s="46"/>
+      <c r="W79" s="46"/>
+      <c r="X79" s="47"/>
+    </row>
+    <row r="80" spans="1:24" ht="24">
+      <c r="C80" s="44"/>
+      <c r="D80" s="48" t="s">
+        <v>587</v>
+      </c>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="46"/>
+      <c r="Q80" s="46"/>
+      <c r="R80" s="46"/>
+      <c r="S80" s="46"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="46"/>
+      <c r="V80" s="46"/>
+      <c r="W80" s="46"/>
+      <c r="X80" s="47"/>
+    </row>
+    <row r="81" spans="3:24" ht="24">
+      <c r="C81" s="44"/>
+      <c r="D81" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="46"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="46"/>
+      <c r="R81" s="46"/>
+      <c r="S81" s="46"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="46"/>
+      <c r="V81" s="46"/>
+      <c r="W81" s="46"/>
+      <c r="X81" s="47"/>
+    </row>
+    <row r="82" spans="3:24" ht="24">
+      <c r="C82" s="44"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="46"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="46"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="46"/>
+      <c r="V82" s="46"/>
+      <c r="W82" s="46"/>
+      <c r="X82" s="47"/>
+    </row>
+    <row r="83" spans="3:24" ht="24">
+      <c r="C83" s="44"/>
+      <c r="D83" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="46"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="46"/>
+      <c r="R83" s="46"/>
+      <c r="S83" s="46"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="46"/>
+      <c r="V83" s="46"/>
+      <c r="W83" s="46"/>
+      <c r="X83" s="47"/>
+    </row>
+    <row r="84" spans="3:24" ht="24">
+      <c r="C84" s="44"/>
+      <c r="D84" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="46"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="46"/>
+      <c r="Q84" s="46"/>
+      <c r="R84" s="46"/>
+      <c r="S84" s="46"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="46"/>
+      <c r="V84" s="46"/>
+      <c r="W84" s="46"/>
+      <c r="X84" s="47"/>
+    </row>
+    <row r="85" spans="3:24" ht="24">
+      <c r="C85" s="44"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="46"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="46"/>
+      <c r="R85" s="46"/>
+      <c r="S85" s="46"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="46"/>
+      <c r="V85" s="46"/>
+      <c r="W85" s="46"/>
+      <c r="X85" s="47"/>
+    </row>
+    <row r="86" spans="3:24" ht="24">
+      <c r="C86" s="44"/>
+      <c r="D86" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="46"/>
+      <c r="O86" s="46"/>
+      <c r="P86" s="46"/>
+      <c r="Q86" s="46"/>
+      <c r="R86" s="46"/>
+      <c r="S86" s="46"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="46"/>
+      <c r="V86" s="46"/>
+      <c r="W86" s="46"/>
+      <c r="X86" s="47"/>
+    </row>
+    <row r="87" spans="3:24" ht="24">
+      <c r="C87" s="44"/>
+      <c r="D87" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="46"/>
+      <c r="Q87" s="46"/>
+      <c r="R87" s="46"/>
+      <c r="S87" s="46"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="46"/>
+      <c r="V87" s="46"/>
+      <c r="W87" s="46"/>
+      <c r="X87" s="47"/>
+    </row>
+    <row r="88" spans="3:24" ht="24">
+      <c r="C88" s="44"/>
+      <c r="D88" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="46"/>
+      <c r="Q88" s="46"/>
+      <c r="R88" s="46"/>
+      <c r="S88" s="46"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="46"/>
+      <c r="V88" s="46"/>
+      <c r="W88" s="46"/>
+      <c r="X88" s="47"/>
+    </row>
+    <row r="89" spans="3:24" ht="24">
+      <c r="C89" s="44"/>
+      <c r="D89" s="48" t="s">
+        <v>556</v>
+      </c>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="46"/>
+      <c r="Q89" s="46"/>
+      <c r="R89" s="46"/>
+      <c r="S89" s="46"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="46"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="46"/>
+      <c r="X89" s="47"/>
+    </row>
+    <row r="90" spans="3:24" ht="24">
+      <c r="C90" s="44"/>
+      <c r="D90" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="46"/>
+      <c r="Q90" s="46"/>
+      <c r="R90" s="46"/>
+      <c r="S90" s="46"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="46"/>
+      <c r="V90" s="46"/>
+      <c r="W90" s="46"/>
+      <c r="X90" s="47"/>
+    </row>
+    <row r="91" spans="3:24" ht="24">
+      <c r="C91" s="44"/>
+      <c r="D91" s="48" t="s">
+        <v>588</v>
+      </c>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="46"/>
+      <c r="Q91" s="46"/>
+      <c r="R91" s="46"/>
+      <c r="S91" s="46"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="46"/>
+      <c r="V91" s="46"/>
+      <c r="W91" s="46"/>
+      <c r="X91" s="47"/>
+    </row>
+    <row r="92" spans="3:24" ht="24">
+      <c r="C92" s="44"/>
+      <c r="D92" s="48" t="s">
+        <v>589</v>
+      </c>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="46"/>
+      <c r="R92" s="46"/>
+      <c r="S92" s="46"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="46"/>
+      <c r="V92" s="46"/>
+      <c r="W92" s="46"/>
+      <c r="X92" s="47"/>
+    </row>
+    <row r="93" spans="3:24" ht="24">
+      <c r="C93" s="44"/>
+      <c r="D93" s="48" t="s">
+        <v>590</v>
+      </c>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="46"/>
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="46"/>
+      <c r="O93" s="46"/>
+      <c r="P93" s="46"/>
+      <c r="Q93" s="46"/>
+      <c r="R93" s="46"/>
+      <c r="S93" s="46"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="46"/>
+      <c r="V93" s="46"/>
+      <c r="W93" s="46"/>
+      <c r="X93" s="47"/>
+    </row>
+    <row r="94" spans="3:24" ht="24">
+      <c r="C94" s="96"/>
+      <c r="D94" s="61" t="s">
+        <v>591</v>
+      </c>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="60"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="60"/>
+      <c r="N94" s="46"/>
+      <c r="O94" s="46"/>
+      <c r="P94" s="46"/>
+      <c r="Q94" s="46"/>
+      <c r="R94" s="46"/>
+      <c r="S94" s="46"/>
+      <c r="T94" s="46"/>
+      <c r="U94" s="46"/>
+      <c r="V94" s="46"/>
+      <c r="W94" s="46"/>
+      <c r="X94" s="47"/>
+    </row>
+    <row r="95" spans="3:24" ht="24">
+      <c r="C95" s="44"/>
+      <c r="D95" s="48" t="s">
+        <v>592</v>
+      </c>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="46"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="46"/>
+      <c r="R95" s="46"/>
+      <c r="S95" s="46"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="46"/>
+      <c r="V95" s="46"/>
+      <c r="W95" s="46"/>
+      <c r="X95" s="47"/>
+    </row>
+    <row r="96" spans="3:24" ht="24">
+      <c r="C96" s="44"/>
+      <c r="D96" s="48" t="s">
+        <v>593</v>
+      </c>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
+      <c r="P96" s="46"/>
+      <c r="Q96" s="46"/>
+      <c r="R96" s="46"/>
+      <c r="S96" s="46"/>
+      <c r="T96" s="46"/>
+      <c r="U96" s="46"/>
+      <c r="V96" s="46"/>
+      <c r="W96" s="46"/>
+      <c r="X96" s="47"/>
+    </row>
+    <row r="97" spans="3:24" ht="24">
+      <c r="C97" s="44"/>
+      <c r="D97" s="48" t="s">
+        <v>594</v>
+      </c>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="46"/>
+      <c r="O97" s="46"/>
+      <c r="P97" s="46"/>
+      <c r="Q97" s="46"/>
+      <c r="R97" s="46"/>
+      <c r="S97" s="46"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="46"/>
+      <c r="V97" s="46"/>
+      <c r="W97" s="46"/>
+      <c r="X97" s="47"/>
+    </row>
+    <row r="98" spans="3:24" ht="24">
+      <c r="C98" s="44"/>
+      <c r="D98" s="48" t="s">
+        <v>595</v>
+      </c>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="46"/>
+      <c r="O98" s="46"/>
+      <c r="P98" s="46"/>
+      <c r="Q98" s="46"/>
+      <c r="R98" s="46"/>
+      <c r="S98" s="46"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="46"/>
+      <c r="V98" s="46"/>
+      <c r="W98" s="46"/>
+      <c r="X98" s="47"/>
+    </row>
+    <row r="99" spans="3:24" ht="24">
+      <c r="C99" s="44"/>
+      <c r="D99" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="46"/>
+      <c r="P99" s="46"/>
+      <c r="Q99" s="46"/>
+      <c r="R99" s="46"/>
+      <c r="S99" s="46"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="46"/>
+      <c r="V99" s="46"/>
+      <c r="W99" s="46"/>
+      <c r="X99" s="47"/>
+    </row>
+    <row r="100" spans="3:24" ht="24">
+      <c r="C100" s="44"/>
+      <c r="D100" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="46"/>
+      <c r="R100" s="46"/>
+      <c r="S100" s="46"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="46"/>
+      <c r="V100" s="46"/>
+      <c r="W100" s="46"/>
+      <c r="X100" s="47"/>
+    </row>
+    <row r="101" spans="3:24" ht="24">
+      <c r="C101" s="44"/>
+      <c r="D101" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="46"/>
+      <c r="O101" s="46"/>
+      <c r="P101" s="46"/>
+      <c r="Q101" s="46"/>
+      <c r="R101" s="46"/>
+      <c r="S101" s="46"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="46"/>
+      <c r="V101" s="46"/>
+      <c r="W101" s="46"/>
+      <c r="X101" s="47"/>
+    </row>
+    <row r="102" spans="3:24" ht="24">
+      <c r="C102" s="44"/>
+      <c r="D102" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="46"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="46"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="46"/>
+      <c r="O102" s="46"/>
+      <c r="P102" s="46"/>
+      <c r="Q102" s="46"/>
+      <c r="R102" s="46"/>
+      <c r="S102" s="46"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="46"/>
+      <c r="V102" s="46"/>
+      <c r="W102" s="46"/>
+      <c r="X102" s="47"/>
+    </row>
+    <row r="103" spans="3:24" ht="24">
+      <c r="C103" s="44"/>
+      <c r="D103" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="46"/>
+      <c r="P103" s="46"/>
+      <c r="Q103" s="46"/>
+      <c r="R103" s="46"/>
+      <c r="S103" s="46"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="46"/>
+      <c r="V103" s="46"/>
+      <c r="W103" s="46"/>
+      <c r="X103" s="47"/>
+    </row>
+    <row r="104" spans="3:24" ht="24">
+      <c r="C104" s="44"/>
+      <c r="D104" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="46"/>
+      <c r="K104" s="46"/>
+      <c r="L104" s="46"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="46"/>
+      <c r="O104" s="46"/>
+      <c r="P104" s="46"/>
+      <c r="Q104" s="46"/>
+      <c r="R104" s="46"/>
+      <c r="S104" s="46"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="46"/>
+      <c r="V104" s="46"/>
+      <c r="W104" s="46"/>
+      <c r="X104" s="47"/>
+    </row>
+    <row r="105" spans="3:24" ht="25" thickBot="1">
+      <c r="C105" s="49"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="50"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="50"/>
+      <c r="P105" s="50"/>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="50"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="50"/>
+      <c r="U105" s="50"/>
+      <c r="V105" s="50"/>
+      <c r="W105" s="50"/>
+      <c r="X105" s="51"/>
+    </row>
+    <row r="108" spans="3:24" ht="21" thickBot="1">
+      <c r="C108" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="109" spans="3:24" ht="24">
+      <c r="C109" s="41"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="42"/>
+      <c r="Q109" s="42"/>
+      <c r="R109" s="42"/>
+      <c r="S109" s="42"/>
+      <c r="T109" s="42"/>
+      <c r="U109" s="42"/>
+      <c r="V109" s="42"/>
+      <c r="W109" s="42"/>
+      <c r="X109" s="43"/>
+    </row>
+    <row r="110" spans="3:24" ht="24">
+      <c r="C110" s="44"/>
+      <c r="D110" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="46"/>
+      <c r="R110" s="46"/>
+      <c r="S110" s="46"/>
+      <c r="T110" s="46"/>
+      <c r="U110" s="46"/>
+      <c r="V110" s="46"/>
+      <c r="W110" s="46"/>
+      <c r="X110" s="47"/>
+    </row>
+    <row r="111" spans="3:24" ht="24">
+      <c r="C111" s="44"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="46"/>
+      <c r="K111" s="46"/>
+      <c r="L111" s="46"/>
+      <c r="M111" s="46"/>
+      <c r="N111" s="46"/>
+      <c r="O111" s="46"/>
+      <c r="P111" s="46"/>
+      <c r="Q111" s="46"/>
+      <c r="R111" s="46"/>
+      <c r="S111" s="46"/>
+      <c r="T111" s="46"/>
+      <c r="U111" s="46"/>
+      <c r="V111" s="46"/>
+      <c r="W111" s="46"/>
+      <c r="X111" s="47"/>
+    </row>
+    <row r="112" spans="3:24" ht="24">
+      <c r="C112" s="44"/>
+      <c r="D112" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E112" s="46"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="46"/>
+      <c r="J112" s="46"/>
+      <c r="K112" s="46"/>
+      <c r="L112" s="46"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="46"/>
+      <c r="O112" s="46"/>
+      <c r="P112" s="46"/>
+      <c r="Q112" s="46"/>
+      <c r="R112" s="46"/>
+      <c r="S112" s="46"/>
+      <c r="T112" s="46"/>
+      <c r="U112" s="46"/>
+      <c r="V112" s="46"/>
+      <c r="W112" s="46"/>
+      <c r="X112" s="47"/>
+    </row>
+    <row r="113" spans="3:24" ht="24">
+      <c r="C113" s="44"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="46"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="46"/>
+      <c r="P113" s="46"/>
+      <c r="Q113" s="46"/>
+      <c r="R113" s="46"/>
+      <c r="S113" s="46"/>
+      <c r="T113" s="46"/>
+      <c r="U113" s="46"/>
+      <c r="V113" s="46"/>
+      <c r="W113" s="46"/>
+      <c r="X113" s="47"/>
+    </row>
+    <row r="114" spans="3:24" ht="24">
+      <c r="C114" s="44"/>
+      <c r="D114" s="45" t="s">
+        <v>583</v>
+      </c>
+      <c r="E114" s="46"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="46"/>
+      <c r="J114" s="46"/>
+      <c r="K114" s="46"/>
+      <c r="L114" s="46"/>
+      <c r="M114" s="46"/>
+      <c r="N114" s="46"/>
+      <c r="O114" s="46"/>
+      <c r="P114" s="46"/>
+      <c r="Q114" s="46"/>
+      <c r="R114" s="46"/>
+      <c r="S114" s="46"/>
+      <c r="T114" s="46"/>
+      <c r="U114" s="46"/>
+      <c r="V114" s="46"/>
+      <c r="W114" s="46"/>
+      <c r="X114" s="47"/>
+    </row>
+    <row r="115" spans="3:24" ht="24">
+      <c r="C115" s="44"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="46"/>
+      <c r="J115" s="46"/>
+      <c r="K115" s="46"/>
+      <c r="L115" s="46"/>
+      <c r="M115" s="46"/>
+      <c r="N115" s="46"/>
+      <c r="O115" s="46"/>
+      <c r="P115" s="46"/>
+      <c r="Q115" s="46"/>
+      <c r="R115" s="46"/>
+      <c r="S115" s="46"/>
+      <c r="T115" s="46"/>
+      <c r="U115" s="46"/>
+      <c r="V115" s="46"/>
+      <c r="W115" s="46"/>
+      <c r="X115" s="47"/>
+    </row>
+    <row r="116" spans="3:24" ht="24">
+      <c r="C116" s="44"/>
+      <c r="D116" s="45" t="s">
+        <v>597</v>
+      </c>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="46"/>
+      <c r="J116" s="46"/>
+      <c r="K116" s="46"/>
+      <c r="L116" s="46"/>
+      <c r="M116" s="46"/>
+      <c r="N116" s="46"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="46"/>
+      <c r="Q116" s="46"/>
+      <c r="R116" s="46"/>
+      <c r="S116" s="46"/>
+      <c r="T116" s="46"/>
+      <c r="U116" s="46"/>
+      <c r="V116" s="46"/>
+      <c r="W116" s="46"/>
+      <c r="X116" s="47"/>
+    </row>
+    <row r="117" spans="3:24" ht="24">
+      <c r="C117" s="44"/>
+      <c r="D117" s="48" t="s">
+        <v>598</v>
+      </c>
+      <c r="E117" s="46"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
+      <c r="J117" s="46"/>
+      <c r="K117" s="46"/>
+      <c r="L117" s="46"/>
+      <c r="M117" s="46"/>
+      <c r="N117" s="46"/>
+      <c r="O117" s="46"/>
+      <c r="P117" s="46"/>
+      <c r="Q117" s="46"/>
+      <c r="R117" s="46"/>
+      <c r="S117" s="46"/>
+      <c r="T117" s="46"/>
+      <c r="U117" s="46"/>
+      <c r="V117" s="46"/>
+      <c r="W117" s="46"/>
+      <c r="X117" s="47"/>
+    </row>
+    <row r="118" spans="3:24" ht="24">
+      <c r="C118" s="44"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="46"/>
+      <c r="J118" s="46"/>
+      <c r="K118" s="46"/>
+      <c r="L118" s="46"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="46"/>
+      <c r="O118" s="46"/>
+      <c r="P118" s="46"/>
+      <c r="Q118" s="46"/>
+      <c r="R118" s="46"/>
+      <c r="S118" s="46"/>
+      <c r="T118" s="46"/>
+      <c r="U118" s="46"/>
+      <c r="V118" s="46"/>
+      <c r="W118" s="46"/>
+      <c r="X118" s="47"/>
+    </row>
+    <row r="119" spans="3:24" ht="24">
+      <c r="C119" s="44"/>
+      <c r="D119" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="E119" s="46"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="46"/>
+      <c r="J119" s="46"/>
+      <c r="K119" s="46"/>
+      <c r="L119" s="46"/>
+      <c r="M119" s="46"/>
+      <c r="N119" s="46"/>
+      <c r="O119" s="46"/>
+      <c r="P119" s="46"/>
+      <c r="Q119" s="46"/>
+      <c r="R119" s="46"/>
+      <c r="S119" s="46"/>
+      <c r="T119" s="46"/>
+      <c r="U119" s="46"/>
+      <c r="V119" s="46"/>
+      <c r="W119" s="46"/>
+      <c r="X119" s="47"/>
+    </row>
+    <row r="120" spans="3:24" ht="24">
+      <c r="C120" s="44"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="46"/>
+      <c r="J120" s="46"/>
+      <c r="K120" s="46"/>
+      <c r="L120" s="46"/>
+      <c r="M120" s="46"/>
+      <c r="N120" s="46"/>
+      <c r="O120" s="46"/>
+      <c r="P120" s="46"/>
+      <c r="Q120" s="46"/>
+      <c r="R120" s="46"/>
+      <c r="S120" s="46"/>
+      <c r="T120" s="46"/>
+      <c r="U120" s="46"/>
+      <c r="V120" s="46"/>
+      <c r="W120" s="46"/>
+      <c r="X120" s="47"/>
+    </row>
+    <row r="121" spans="3:24" ht="24">
+      <c r="C121" s="44"/>
+      <c r="D121" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="46"/>
+      <c r="J121" s="46"/>
+      <c r="K121" s="46"/>
+      <c r="L121" s="46"/>
+      <c r="M121" s="46"/>
+      <c r="N121" s="46"/>
+      <c r="O121" s="46"/>
+      <c r="P121" s="46"/>
+      <c r="Q121" s="46"/>
+      <c r="R121" s="46"/>
+      <c r="S121" s="46"/>
+      <c r="T121" s="46"/>
+      <c r="U121" s="46"/>
+      <c r="V121" s="46"/>
+      <c r="W121" s="46"/>
+      <c r="X121" s="47"/>
+    </row>
+    <row r="122" spans="3:24" ht="24">
+      <c r="C122" s="44"/>
+      <c r="D122" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E122" s="46"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="46"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
+      <c r="L122" s="46"/>
+      <c r="M122" s="46"/>
+      <c r="N122" s="46"/>
+      <c r="O122" s="46"/>
+      <c r="P122" s="46"/>
+      <c r="Q122" s="46"/>
+      <c r="R122" s="46"/>
+      <c r="S122" s="46"/>
+      <c r="T122" s="46"/>
+      <c r="U122" s="46"/>
+      <c r="V122" s="46"/>
+      <c r="W122" s="46"/>
+      <c r="X122" s="47"/>
+    </row>
+    <row r="123" spans="3:24" ht="24">
+      <c r="C123" s="44"/>
+      <c r="D123" s="48" t="s">
+        <v>573</v>
+      </c>
+      <c r="E123" s="46"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="46"/>
+      <c r="J123" s="46"/>
+      <c r="K123" s="46"/>
+      <c r="L123" s="46"/>
+      <c r="M123" s="46"/>
+      <c r="N123" s="46"/>
+      <c r="O123" s="46"/>
+      <c r="P123" s="46"/>
+      <c r="Q123" s="46"/>
+      <c r="R123" s="46"/>
+      <c r="S123" s="46"/>
+      <c r="T123" s="46"/>
+      <c r="U123" s="46"/>
+      <c r="V123" s="46"/>
+      <c r="W123" s="46"/>
+      <c r="X123" s="47"/>
+    </row>
+    <row r="124" spans="3:24" ht="24">
+      <c r="C124" s="44"/>
+      <c r="D124" s="48" t="s">
+        <v>600</v>
+      </c>
+      <c r="E124" s="46"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="46"/>
+      <c r="J124" s="46"/>
+      <c r="K124" s="46"/>
+      <c r="L124" s="46"/>
+      <c r="M124" s="46"/>
+      <c r="N124" s="46"/>
+      <c r="O124" s="46"/>
+      <c r="P124" s="46"/>
+      <c r="Q124" s="46"/>
+      <c r="R124" s="46"/>
+      <c r="S124" s="46"/>
+      <c r="T124" s="46"/>
+      <c r="U124" s="46"/>
+      <c r="V124" s="46"/>
+      <c r="W124" s="46"/>
+      <c r="X124" s="47"/>
+    </row>
+    <row r="125" spans="3:24" ht="24">
+      <c r="C125" s="96"/>
+      <c r="D125" s="61" t="s">
+        <v>601</v>
+      </c>
+      <c r="E125" s="60"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
+      <c r="L125" s="60"/>
+      <c r="M125" s="60"/>
+      <c r="N125" s="46"/>
+      <c r="O125" s="46"/>
+      <c r="P125" s="46"/>
+      <c r="Q125" s="46"/>
+      <c r="R125" s="46"/>
+      <c r="S125" s="46"/>
+      <c r="T125" s="46"/>
+      <c r="U125" s="46"/>
+      <c r="V125" s="46"/>
+      <c r="W125" s="46"/>
+      <c r="X125" s="47"/>
+    </row>
+    <row r="126" spans="3:24" ht="24">
+      <c r="C126" s="96"/>
+      <c r="D126" s="61" t="s">
+        <v>602</v>
+      </c>
+      <c r="E126" s="60"/>
+      <c r="F126" s="60"/>
+      <c r="G126" s="60"/>
+      <c r="H126" s="60"/>
+      <c r="I126" s="60"/>
+      <c r="J126" s="60"/>
+      <c r="K126" s="60"/>
+      <c r="L126" s="60"/>
+      <c r="M126" s="60"/>
+      <c r="N126" s="46"/>
+      <c r="O126" s="46"/>
+      <c r="P126" s="46"/>
+      <c r="Q126" s="46"/>
+      <c r="R126" s="46"/>
+      <c r="S126" s="46"/>
+      <c r="T126" s="46"/>
+      <c r="U126" s="46"/>
+      <c r="V126" s="46"/>
+      <c r="W126" s="46"/>
+      <c r="X126" s="47"/>
+    </row>
+    <row r="127" spans="3:24" ht="24">
+      <c r="C127" s="44"/>
+      <c r="D127" s="48" t="s">
+        <v>603</v>
+      </c>
+      <c r="E127" s="46"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="46"/>
+      <c r="H127" s="46"/>
+      <c r="I127" s="46"/>
+      <c r="J127" s="46"/>
+      <c r="K127" s="46"/>
+      <c r="L127" s="46"/>
+      <c r="M127" s="46"/>
+      <c r="N127" s="46"/>
+      <c r="O127" s="46"/>
+      <c r="P127" s="46"/>
+      <c r="Q127" s="46"/>
+      <c r="R127" s="46"/>
+      <c r="S127" s="46"/>
+      <c r="T127" s="46"/>
+      <c r="U127" s="46"/>
+      <c r="V127" s="46"/>
+      <c r="W127" s="46"/>
+      <c r="X127" s="47"/>
+    </row>
+    <row r="128" spans="3:24" ht="24">
+      <c r="C128" s="44"/>
+      <c r="D128" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="E128" s="46"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="46"/>
+      <c r="I128" s="46"/>
+      <c r="J128" s="46"/>
+      <c r="K128" s="46"/>
+      <c r="L128" s="46"/>
+      <c r="M128" s="46"/>
+      <c r="N128" s="46"/>
+      <c r="O128" s="46"/>
+      <c r="P128" s="46"/>
+      <c r="Q128" s="46"/>
+      <c r="R128" s="46"/>
+      <c r="S128" s="46"/>
+      <c r="T128" s="46"/>
+      <c r="U128" s="46"/>
+      <c r="V128" s="46"/>
+      <c r="W128" s="46"/>
+      <c r="X128" s="47"/>
+    </row>
+    <row r="129" spans="3:24" ht="24">
+      <c r="C129" s="44"/>
+      <c r="D129" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E129" s="46"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="46"/>
+      <c r="I129" s="46"/>
+      <c r="J129" s="46"/>
+      <c r="K129" s="46"/>
+      <c r="L129" s="46"/>
+      <c r="M129" s="46"/>
+      <c r="N129" s="46"/>
+      <c r="O129" s="46"/>
+      <c r="P129" s="46"/>
+      <c r="Q129" s="46"/>
+      <c r="R129" s="46"/>
+      <c r="S129" s="46"/>
+      <c r="T129" s="46"/>
+      <c r="U129" s="46"/>
+      <c r="V129" s="46"/>
+      <c r="W129" s="46"/>
+      <c r="X129" s="47"/>
+    </row>
+    <row r="130" spans="3:24" ht="24">
+      <c r="C130" s="44"/>
+      <c r="D130" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E130" s="46"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="46"/>
+      <c r="J130" s="46"/>
+      <c r="K130" s="46"/>
+      <c r="L130" s="46"/>
+      <c r="M130" s="46"/>
+      <c r="N130" s="46"/>
+      <c r="O130" s="46"/>
+      <c r="P130" s="46"/>
+      <c r="Q130" s="46"/>
+      <c r="R130" s="46"/>
+      <c r="S130" s="46"/>
+      <c r="T130" s="46"/>
+      <c r="U130" s="46"/>
+      <c r="V130" s="46"/>
+      <c r="W130" s="46"/>
+      <c r="X130" s="47"/>
+    </row>
+    <row r="131" spans="3:24" ht="24">
+      <c r="C131" s="44"/>
+      <c r="D131" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E131" s="46"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="46"/>
+      <c r="I131" s="46"/>
+      <c r="J131" s="46"/>
+      <c r="K131" s="46"/>
+      <c r="L131" s="46"/>
+      <c r="M131" s="46"/>
+      <c r="N131" s="46"/>
+      <c r="O131" s="46"/>
+      <c r="P131" s="46"/>
+      <c r="Q131" s="46"/>
+      <c r="R131" s="46"/>
+      <c r="S131" s="46"/>
+      <c r="T131" s="46"/>
+      <c r="U131" s="46"/>
+      <c r="V131" s="46"/>
+      <c r="W131" s="46"/>
+      <c r="X131" s="47"/>
+    </row>
+    <row r="132" spans="3:24" ht="25" thickBot="1">
+      <c r="C132" s="49"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
+      <c r="H132" s="50"/>
+      <c r="I132" s="50"/>
+      <c r="J132" s="50"/>
+      <c r="K132" s="50"/>
+      <c r="L132" s="50"/>
+      <c r="M132" s="50"/>
+      <c r="N132" s="50"/>
+      <c r="O132" s="50"/>
+      <c r="P132" s="50"/>
+      <c r="Q132" s="50"/>
+      <c r="R132" s="50"/>
+      <c r="S132" s="50"/>
+      <c r="T132" s="50"/>
+      <c r="U132" s="50"/>
+      <c r="V132" s="50"/>
+      <c r="W132" s="50"/>
+      <c r="X132" s="51"/>
+    </row>
+    <row r="135" spans="3:24" ht="21" thickBot="1">
+      <c r="C135" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="136" spans="3:24" ht="24">
+      <c r="C136" s="41"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
+      <c r="K136" s="42"/>
+      <c r="L136" s="42"/>
+      <c r="M136" s="42"/>
+      <c r="N136" s="42"/>
+      <c r="O136" s="42"/>
+      <c r="P136" s="42"/>
+      <c r="Q136" s="42"/>
+      <c r="R136" s="42"/>
+      <c r="S136" s="42"/>
+      <c r="T136" s="42"/>
+      <c r="U136" s="42"/>
+      <c r="V136" s="42"/>
+      <c r="W136" s="42"/>
+      <c r="X136" s="43"/>
+    </row>
+    <row r="137" spans="3:24" ht="24">
+      <c r="C137" s="44"/>
+      <c r="D137" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E137" s="46"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="46"/>
+      <c r="I137" s="46"/>
+      <c r="J137" s="46"/>
+      <c r="K137" s="46"/>
+      <c r="L137" s="46"/>
+      <c r="M137" s="46"/>
+      <c r="N137" s="46"/>
+      <c r="O137" s="46"/>
+      <c r="P137" s="46"/>
+      <c r="Q137" s="46"/>
+      <c r="R137" s="46"/>
+      <c r="S137" s="46"/>
+      <c r="T137" s="46"/>
+      <c r="U137" s="46"/>
+      <c r="V137" s="46"/>
+      <c r="W137" s="46"/>
+      <c r="X137" s="47"/>
+    </row>
+    <row r="138" spans="3:24" ht="24">
+      <c r="C138" s="44"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="46"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="46"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="46"/>
+      <c r="J138" s="46"/>
+      <c r="K138" s="46"/>
+      <c r="L138" s="46"/>
+      <c r="M138" s="46"/>
+      <c r="N138" s="46"/>
+      <c r="O138" s="46"/>
+      <c r="P138" s="46"/>
+      <c r="Q138" s="46"/>
+      <c r="R138" s="46"/>
+      <c r="S138" s="46"/>
+      <c r="T138" s="46"/>
+      <c r="U138" s="46"/>
+      <c r="V138" s="46"/>
+      <c r="W138" s="46"/>
+      <c r="X138" s="47"/>
+    </row>
+    <row r="139" spans="3:24" ht="24">
+      <c r="C139" s="44"/>
+      <c r="D139" s="45" t="s">
+        <v>606</v>
+      </c>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="60"/>
+      <c r="I139" s="60"/>
+      <c r="J139" s="60"/>
+      <c r="K139" s="60"/>
+      <c r="L139" s="46"/>
+      <c r="M139" s="46"/>
+      <c r="N139" s="46"/>
+      <c r="O139" s="46"/>
+      <c r="P139" s="46"/>
+      <c r="Q139" s="46"/>
+      <c r="R139" s="46"/>
+      <c r="S139" s="46"/>
+      <c r="T139" s="46"/>
+      <c r="U139" s="46"/>
+      <c r="V139" s="46"/>
+      <c r="W139" s="46"/>
+      <c r="X139" s="47"/>
+    </row>
+    <row r="140" spans="3:24" ht="24">
+      <c r="C140" s="44"/>
+      <c r="D140" s="48" t="s">
+        <v>607</v>
+      </c>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="46"/>
+      <c r="I140" s="46"/>
+      <c r="J140" s="46"/>
+      <c r="K140" s="46"/>
+      <c r="L140" s="46"/>
+      <c r="M140" s="46"/>
+      <c r="N140" s="46"/>
+      <c r="O140" s="46"/>
+      <c r="P140" s="46"/>
+      <c r="Q140" s="46"/>
+      <c r="R140" s="46"/>
+      <c r="S140" s="46"/>
+      <c r="T140" s="46"/>
+      <c r="U140" s="46"/>
+      <c r="V140" s="46"/>
+      <c r="W140" s="46"/>
+      <c r="X140" s="47"/>
+    </row>
+    <row r="141" spans="3:24" ht="24">
+      <c r="C141" s="44"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="46"/>
+      <c r="H141" s="46"/>
+      <c r="I141" s="46"/>
+      <c r="J141" s="46"/>
+      <c r="K141" s="46"/>
+      <c r="L141" s="46"/>
+      <c r="M141" s="46"/>
+      <c r="N141" s="46"/>
+      <c r="O141" s="46"/>
+      <c r="P141" s="46"/>
+      <c r="Q141" s="46"/>
+      <c r="R141" s="46"/>
+      <c r="S141" s="46"/>
+      <c r="T141" s="46"/>
+      <c r="U141" s="46"/>
+      <c r="V141" s="46"/>
+      <c r="W141" s="46"/>
+      <c r="X141" s="47"/>
+    </row>
+    <row r="142" spans="3:24" ht="24">
+      <c r="C142" s="44"/>
+      <c r="D142" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="46"/>
+      <c r="J142" s="46"/>
+      <c r="K142" s="46"/>
+      <c r="L142" s="46"/>
+      <c r="M142" s="46"/>
+      <c r="N142" s="46"/>
+      <c r="O142" s="46"/>
+      <c r="P142" s="46"/>
+      <c r="Q142" s="46"/>
+      <c r="R142" s="46"/>
+      <c r="S142" s="46"/>
+      <c r="T142" s="46"/>
+      <c r="U142" s="46"/>
+      <c r="V142" s="46"/>
+      <c r="W142" s="46"/>
+      <c r="X142" s="47"/>
+    </row>
+    <row r="143" spans="3:24" ht="24">
+      <c r="C143" s="44"/>
+      <c r="D143" s="58" t="s">
+        <v>608</v>
+      </c>
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="46"/>
+      <c r="H143" s="46"/>
+      <c r="I143" s="46"/>
+      <c r="J143" s="46"/>
+      <c r="K143" s="46"/>
+      <c r="L143" s="46"/>
+      <c r="M143" s="46"/>
+      <c r="N143" s="46"/>
+      <c r="O143" s="46"/>
+      <c r="P143" s="46"/>
+      <c r="Q143" s="46"/>
+      <c r="R143" s="46"/>
+      <c r="S143" s="46"/>
+      <c r="T143" s="46"/>
+      <c r="U143" s="46"/>
+      <c r="V143" s="46"/>
+      <c r="W143" s="46"/>
+      <c r="X143" s="47"/>
+    </row>
+    <row r="144" spans="3:24" ht="24">
+      <c r="C144" s="44"/>
+      <c r="D144" s="48" t="s">
+        <v>609</v>
+      </c>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="46"/>
+      <c r="I144" s="46"/>
+      <c r="J144" s="46"/>
+      <c r="K144" s="46"/>
+      <c r="L144" s="46"/>
+      <c r="M144" s="46"/>
+      <c r="N144" s="46"/>
+      <c r="O144" s="46"/>
+      <c r="P144" s="46"/>
+      <c r="Q144" s="46"/>
+      <c r="R144" s="46"/>
+      <c r="S144" s="46"/>
+      <c r="T144" s="46"/>
+      <c r="U144" s="46"/>
+      <c r="V144" s="46"/>
+      <c r="W144" s="46"/>
+      <c r="X144" s="47"/>
+    </row>
+    <row r="145" spans="3:24" ht="24">
+      <c r="C145" s="44"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="46"/>
+      <c r="I145" s="46"/>
+      <c r="J145" s="46"/>
+      <c r="K145" s="46"/>
+      <c r="L145" s="46"/>
+      <c r="M145" s="46"/>
+      <c r="N145" s="46"/>
+      <c r="O145" s="46"/>
+      <c r="P145" s="46"/>
+      <c r="Q145" s="46"/>
+      <c r="R145" s="46"/>
+      <c r="S145" s="46"/>
+      <c r="T145" s="46"/>
+      <c r="U145" s="46"/>
+      <c r="V145" s="46"/>
+      <c r="W145" s="46"/>
+      <c r="X145" s="47"/>
+    </row>
+    <row r="146" spans="3:24" ht="24">
+      <c r="C146" s="96"/>
+      <c r="D146" s="61" t="s">
+        <v>552</v>
+      </c>
+      <c r="E146" s="60"/>
+      <c r="F146" s="60"/>
+      <c r="G146" s="60"/>
+      <c r="H146" s="46"/>
+      <c r="I146" s="46"/>
+      <c r="J146" s="46"/>
+      <c r="K146" s="46"/>
+      <c r="L146" s="46"/>
+      <c r="M146" s="46"/>
+      <c r="N146" s="46"/>
+      <c r="O146" s="46"/>
+      <c r="P146" s="46"/>
+      <c r="Q146" s="46"/>
+      <c r="R146" s="46"/>
+      <c r="S146" s="46"/>
+      <c r="T146" s="46"/>
+      <c r="U146" s="46"/>
+      <c r="V146" s="46"/>
+      <c r="W146" s="46"/>
+      <c r="X146" s="47"/>
+    </row>
+    <row r="147" spans="3:24" ht="24">
+      <c r="C147" s="44"/>
+      <c r="D147" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E147" s="46"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="46"/>
+      <c r="H147" s="46"/>
+      <c r="I147" s="46"/>
+      <c r="J147" s="46"/>
+      <c r="K147" s="46"/>
+      <c r="L147" s="46"/>
+      <c r="M147" s="46"/>
+      <c r="N147" s="46"/>
+      <c r="O147" s="46"/>
+      <c r="P147" s="46"/>
+      <c r="Q147" s="46"/>
+      <c r="R147" s="46"/>
+      <c r="S147" s="46"/>
+      <c r="T147" s="46"/>
+      <c r="U147" s="46"/>
+      <c r="V147" s="46"/>
+      <c r="W147" s="46"/>
+      <c r="X147" s="47"/>
+    </row>
+    <row r="148" spans="3:24" ht="24">
+      <c r="C148" s="44"/>
+      <c r="D148" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E148" s="46"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="46"/>
+      <c r="H148" s="46"/>
+      <c r="I148" s="46"/>
+      <c r="J148" s="46"/>
+      <c r="K148" s="46"/>
+      <c r="L148" s="46"/>
+      <c r="M148" s="46"/>
+      <c r="N148" s="46"/>
+      <c r="O148" s="46"/>
+      <c r="P148" s="46"/>
+      <c r="Q148" s="46"/>
+      <c r="R148" s="46"/>
+      <c r="S148" s="46"/>
+      <c r="T148" s="46"/>
+      <c r="U148" s="46"/>
+      <c r="V148" s="46"/>
+      <c r="W148" s="46"/>
+      <c r="X148" s="47"/>
+    </row>
+    <row r="149" spans="3:24" ht="25" thickBot="1">
+      <c r="C149" s="49"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="50"/>
+      <c r="G149" s="50"/>
+      <c r="H149" s="50"/>
+      <c r="I149" s="50"/>
+      <c r="J149" s="50"/>
+      <c r="K149" s="50"/>
+      <c r="L149" s="50"/>
+      <c r="M149" s="50"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="50"/>
+      <c r="P149" s="50"/>
+      <c r="Q149" s="50"/>
+      <c r="R149" s="50"/>
+      <c r="S149" s="50"/>
+      <c r="T149" s="50"/>
+      <c r="U149" s="50"/>
+      <c r="V149" s="50"/>
+      <c r="W149" s="50"/>
+      <c r="X149" s="51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D5E6B473-7E4F-3441-94EC-CB1B12FB2294}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA8847B-3B2B-F142-B5FF-398DA2C079A6}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -31840,7 +41026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD606730-CB2E-8E47-BFB3-5029A7CFF92A}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
